--- a/regionseng/7/education/education.xlsx
+++ b/regionseng/7/education/education.xlsx
@@ -1,104 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\გამოქვეყნებული 2022\2023 გამოქვეყნება\განათლება 2023\უმაღლესი და პროფეს2023\განათლება რეგიონი 2023\education\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B0FAB90-DEC3-485D-B758-415E3C988681}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21720" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Racha...Kvemo Svaneti" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2006/2007</t>
-  </si>
-  <si>
-    <t>2007/2008</t>
-  </si>
-  <si>
-    <t>2008/2009</t>
-  </si>
-  <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2005/2006</t>
-  </si>
-  <si>
-    <t>2010/2011*</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="38">
   <si>
     <t>Education</t>
   </si>
   <si>
-    <t>* As at 5 April 2011</t>
-  </si>
-  <si>
-    <t>Public institutions</t>
-  </si>
-  <si>
-    <t>Private institutions</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>General education  schools, unit</t>
-  </si>
-  <si>
-    <t>Number of pupils, persons</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>Number of educational institutions, unit</t>
-  </si>
-  <si>
-    <t>Number of admitted students, persons</t>
-  </si>
-  <si>
-    <t>Number of graduated students, persons</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
-  </si>
-  <si>
-    <t>Indicators of Vocational Education in Racha-Lechkhumi and Kvemo Svaneti* region</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*2013-2016 data include Racha-Lechkhumi and Kvemo Svaneti, Mtskheta-Mtianeti, Guria, Kakheti regions; From 2017 data include Racha-Lechkhumi and Kvemo Svaneti, Mtskheta-Mtianeti, Guria regions. </t>
-  </si>
-  <si>
-    <t>Number of teachers, persons</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Number of General Education Schools and Pupils in Racha-Lechkhumi and Kvemo svaneti region
+      <t xml:space="preserve">Number of General Education Schools and Pupils in Racha-Lechkhumi and Kvemo Svaneti region
 </t>
     </r>
     <r>
@@ -112,19 +40,46 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Number of Higher Education Institutions in Racha-Lechkhumi and Kvemo svaneti region
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(At the beginning of the school year, unit)</t>
-    </r>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>2010/2011*</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
   </si>
   <si>
     <t>2019/2020</t>
@@ -134,6 +89,24 @@
   </si>
   <si>
     <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>General education  schools, unit</t>
+  </si>
+  <si>
+    <t>Number of pupils, persons</t>
+  </si>
+  <si>
+    <t>2 883</t>
+  </si>
+  <si>
+    <t>* As at 5 April 2011</t>
   </si>
   <si>
     <r>
@@ -151,10 +124,27 @@
         <sz val="9"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Ministry of Education and Science of Georgia.</t>
     </r>
+  </si>
+  <si>
+    <t>Indicators of Vocational Education in Racha-Lechkhumi and Kvemo Svaneti* region</t>
+  </si>
+  <si>
+    <t>Number of educational institutions, unit</t>
+  </si>
+  <si>
+    <t>Number of admitted students, persons</t>
+  </si>
+  <si>
+    <t>Number of graduated students, persons</t>
+  </si>
+  <si>
+    <t>Number of teachers, persons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*2013-2016 data include Racha-Lechkhumi and Kvemo Svaneti, Mtskheta-Mtianeti, Guria, Kakheti regions; From 2017 data include Racha-Lechkhumi and Kvemo Svaneti, Mtskheta-Mtianeti, Guria regions. </t>
   </si>
   <si>
     <r>
@@ -174,20 +164,79 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> Ministry of Education and Science of Georgia.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Number of Higher Education Institutions in Racha-Lechkhumi and Kvemo svaneti region
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(At the beginning of the school year, unit)</t>
+    </r>
+  </si>
+  <si>
+    <t>Public institutions</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Private institutions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> „ - „ - Data is confidential or unavailable.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="166" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,25 +245,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -222,31 +263,35 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <u/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -260,17 +305,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -278,16 +312,18 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -311,7 +347,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -319,10 +355,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -330,100 +366,105 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3DE1489F-FE02-4436-A1E6-5A759419A8C8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -481,7 +522,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,7 +557,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -724,24 +765,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="45.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16" width="10.7109375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="12.7109375" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="20" width="10.7109375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="30" customHeight="1">
       <c r="A1" s="29" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -760,91 +800,100 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-    </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="21" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" customHeight="1">
+      <c r="A3" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="21" t="s">
+      <c r="K4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="21" t="s">
+      <c r="L4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="Q4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T4" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="2">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
         <v>72</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>72</v>
       </c>
       <c r="D5" s="1">
@@ -886,117 +935,129 @@
       <c r="P5" s="1">
         <v>68</v>
       </c>
-      <c r="Q5" s="25">
+      <c r="Q5" s="12">
         <v>68</v>
       </c>
-      <c r="R5" s="25">
+      <c r="R5" s="12">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="S5" s="12">
+        <v>68</v>
+      </c>
+      <c r="T5" s="12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6">
         <v>5376</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>5135</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="7">
         <v>4806</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="7">
         <v>5010</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="7">
         <v>4629</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="7">
         <v>4365</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="7">
         <v>4074</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="7">
         <v>3825</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="7">
         <v>3627</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="7">
         <v>3436</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="7">
         <v>3261</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="7">
         <v>3136</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="7">
         <v>3013</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="7">
         <v>2954</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="7">
         <v>2928</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <v>2939</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="25">
         <v>2907</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-    </row>
-    <row r="10" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="S6" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T6" s="27">
+        <v>2869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="21">
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:20" ht="30" customHeight="1">
+      <c r="A10" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3">
         <v>2013</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="3">
         <v>2014</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="3">
         <v>2015</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="3">
         <v>2016</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="3">
         <v>2017</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="3">
         <v>2018</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="3">
         <v>2019</v>
       </c>
       <c r="I11" s="24">
@@ -1005,349 +1066,401 @@
       <c r="J11" s="24">
         <v>2021</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="24">
+        <v>2022</v>
+      </c>
+      <c r="L11" s="24">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="4">
+        <v>27</v>
+      </c>
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="11">
         <v>8</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="11">
         <v>8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="11">
         <v>10</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="11">
         <v>4</v>
       </c>
       <c r="G12" s="1">
         <v>4</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="12">
         <v>4</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="12">
         <v>4</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="12">
+        <v>4</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="14">
+        <v>28</v>
+      </c>
+      <c r="B13" s="13">
         <v>1530</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>1427</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>1408</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>1576</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>627</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>502</v>
       </c>
-      <c r="H13" s="22">
+      <c r="H13" s="12">
         <v>376</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="12">
         <v>680</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="12">
         <v>481</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="12">
+        <v>574</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="15" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="14">
+        <v>29</v>
+      </c>
+      <c r="B14" s="13">
         <v>715</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>1327</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="15">
         <v>1362</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>1088</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>516</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <v>165</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H14" s="12">
         <v>412</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="12">
         <v>114</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="12">
         <v>306</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="K14" s="12">
+        <v>327</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="16">
         <v>134</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="16">
         <v>155</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="17">
         <v>238</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="17">
         <v>276</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="17">
         <v>127</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="18">
         <v>167</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="19">
         <v>194</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="19">
         <v>239</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="19">
         <v>268</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-    </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="K15" s="19">
+        <v>327</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="30" customHeight="1">
+      <c r="A16" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1">
+      <c r="A17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:19" ht="30" customHeight="1">
+      <c r="A19" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-    </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="21" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="21" t="s">
+      <c r="J20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="18">
         <v>1</v>
       </c>
-      <c r="L20" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="P20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I22" s="6">
+      <c r="J22" s="18">
         <v>1</v>
       </c>
-      <c r="J22" s="6">
+      <c r="K22" s="18">
         <v>1</v>
       </c>
-      <c r="K22" s="6">
+      <c r="L22" s="18">
         <v>1</v>
       </c>
-      <c r="L22" s="6">
+      <c r="M22" s="18">
         <v>1</v>
       </c>
-      <c r="M22" s="6">
+      <c r="N22" s="18">
         <v>1</v>
       </c>
-      <c r="N22" s="6">
+      <c r="O22" s="18">
         <v>1</v>
       </c>
-      <c r="O22" s="6">
+      <c r="P22" s="18">
         <v>1</v>
       </c>
-      <c r="P22" s="6">
+      <c r="Q22" s="26">
         <v>1</v>
       </c>
-      <c r="Q22" s="32">
-        <v>1</v>
+      <c r="R22" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="21" customHeight="1">
+      <c r="A23" s="33" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A3:S3"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A16:I16"/>
     <mergeCell ref="A19:P19"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A3:R3"/>
-    <mergeCell ref="A10:J10"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300"/>
 </worksheet>
 </file>